--- a/lab_notebook/data/Fortino_ergosterol.xlsx
+++ b/lab_notebook/data/Fortino_ergosterol.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vlad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23780" windowHeight="18900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="HPLC summary" sheetId="1" r:id="rId2"/>
     <sheet name="CPOM_flux_LPP_sed_OM_final_7jul" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,7 +27,7 @@
     <author>Vlad Gulis</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
     <author>Vlad Gulis</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="275">
   <si>
     <t>Sequence:</t>
   </si>
@@ -863,6 +864,57 @@
   </si>
   <si>
     <t>AFDM, g</t>
+  </si>
+  <si>
+    <t>samp_code</t>
+  </si>
+  <si>
+    <t>samp</t>
+  </si>
+  <si>
+    <t>samp_AFDM</t>
+  </si>
+  <si>
+    <t>ml_MeOH</t>
+  </si>
+  <si>
+    <t>pk_area</t>
+  </si>
+  <si>
+    <t>ergo_conc</t>
+  </si>
+  <si>
+    <t>ergo_samp</t>
+  </si>
+  <si>
+    <t>fungal_mass</t>
+  </si>
+  <si>
+    <t>ergo_per_OM</t>
+  </si>
+  <si>
+    <t>fungal_mass_per_OM</t>
+  </si>
+  <si>
+    <t>CPOM</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y </t>
+  </si>
+  <si>
+    <t>nutrients</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>sed</t>
   </si>
 </sst>
 </file>
@@ -870,10 +922,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,6 +1089,22 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1347,7 +1415,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1358,7 +1426,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,15 +1434,15 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1418,6 +1486,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1425,7 +1503,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1439,7 +1517,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1450,17 +1528,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="53">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1489,11 +1567,21 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1548,7 +1636,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1575,25 +1662,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>281040</c:v>
+                  <c:v>281040.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148442</c:v>
+                  <c:v>148442.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70870</c:v>
+                  <c:v>70870.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33455</c:v>
+                  <c:v>33455.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30986</c:v>
+                  <c:v>30986.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14694</c:v>
+                  <c:v>14694.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144079</c:v>
+                  <c:v>144079.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,7 +1692,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
@@ -1648,25 +1735,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>281040</c:v>
+                  <c:v>281040.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148442</c:v>
+                  <c:v>148442.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70870</c:v>
+                  <c:v>70870.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33455</c:v>
+                  <c:v>33455.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30986</c:v>
+                  <c:v>30986.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14694</c:v>
+                  <c:v>14694.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144079</c:v>
+                  <c:v>144079.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,25 +1765,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.99117588294935399</c:v>
+                  <c:v>0.991175882949354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51799589294262494</c:v>
+                  <c:v>0.517995892942625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24117785507778539</c:v>
+                  <c:v>0.241177855077785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10766129128269214</c:v>
+                  <c:v>0.107661291282692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8850589799060307E-2</c:v>
+                  <c:v>0.0988505897990603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0712093010348331E-2</c:v>
+                  <c:v>0.0407120930103483</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5024263949381349</c:v>
+                  <c:v>0.502426394938135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,11 +1798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409717888"/>
-        <c:axId val="409717104"/>
+        <c:axId val="2074970584"/>
+        <c:axId val="2074974024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409717888"/>
+        <c:axId val="2074970584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,19 +1824,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409717104"/>
+        <c:crossAx val="2074974024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409717104"/>
+        <c:axId val="2074974024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,21 +1857,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409717888"/>
+        <c:crossAx val="2074970584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1830,7 +1914,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1857,16 +1940,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>144079</c:v>
+                  <c:v>144079.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>552479</c:v>
+                  <c:v>552479.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1414635</c:v>
+                  <c:v>1.414635E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74926</c:v>
+                  <c:v>74926.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,10 +1964,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.25</c:v>
@@ -1912,16 +1995,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>144079</c:v>
+                  <c:v>144079.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>552479</c:v>
+                  <c:v>552479.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1414635</c:v>
+                  <c:v>1.414635E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74926</c:v>
+                  <c:v>74926.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,16 +2016,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.51115805381205281</c:v>
+                  <c:v>0.511158053812053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9585849770396964</c:v>
+                  <c:v>1.958584977039696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0141868536857599</c:v>
+                  <c:v>5.01418685368576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26607011546249049</c:v>
+                  <c:v>0.26607011546249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,11 +2040,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336596456"/>
-        <c:axId val="336592144"/>
+        <c:axId val="2075007144"/>
+        <c:axId val="2075012664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336596456"/>
+        <c:axId val="2075007144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,19 +2066,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336592144"/>
+        <c:crossAx val="2075012664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336592144"/>
+        <c:axId val="2075012664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,21 +2099,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336596456"/>
+        <c:crossAx val="2075007144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2154,7 +2234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2189,7 +2269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2366,7 +2446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2376,23 +2456,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="7" max="8" width="9" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="49">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2503,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>167</v>
       </c>
@@ -2460,7 +2540,7 @@
         <v>37.054993825648154</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
         <v>249</v>
       </c>
@@ -2494,7 +2574,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
         <v>250</v>
       </c>
@@ -2528,7 +2608,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>169</v>
       </c>
@@ -2564,7 +2644,7 @@
         <v>20.78991596052451</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
         <v>251</v>
       </c>
@@ -2598,7 +2678,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>171</v>
       </c>
@@ -2634,7 +2714,7 @@
         <v>29.563460500648592</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
         <v>252</v>
       </c>
@@ -2668,7 +2748,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="11" t="s">
         <v>253</v>
       </c>
@@ -2702,7 +2782,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="11" t="s">
         <v>254</v>
       </c>
@@ -2736,7 +2816,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>174</v>
       </c>
@@ -2772,7 +2852,7 @@
         <v>21.455298530486626</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>178</v>
       </c>
@@ -2808,7 +2888,7 @@
         <v>21.885415168499019</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>180</v>
       </c>
@@ -2844,7 +2924,7 @@
         <v>14.185402184856752</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>182</v>
       </c>
@@ -2880,7 +2960,7 @@
         <v>13.250416377928218</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="11" t="s">
         <v>255</v>
       </c>
@@ -2914,7 +2994,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="11" t="s">
         <v>256</v>
       </c>
@@ -2948,7 +3028,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>184</v>
       </c>
@@ -2984,7 +3064,7 @@
         <v>33.987381585929832</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>127</v>
       </c>
@@ -3020,7 +3100,7 @@
         <v>11.166797985750973</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
         <v>129</v>
       </c>
@@ -3056,7 +3136,7 @@
         <v>10.658937407007027</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="7" t="s">
         <v>131</v>
       </c>
@@ -3092,7 +3172,7 @@
         <v>10.459711226041032</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>133</v>
       </c>
@@ -3128,7 +3208,7 @@
         <v>7.3966689550194298</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
         <v>135</v>
       </c>
@@ -3164,7 +3244,7 @@
         <v>12.466024376503787</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="7" t="s">
         <v>137</v>
       </c>
@@ -3200,7 +3280,7 @@
         <v>8.5433717865851744</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="7" t="s">
         <v>139</v>
       </c>
@@ -3236,7 +3316,7 @@
         <v>11.544975682011883</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="7" t="s">
         <v>141</v>
       </c>
@@ -3272,7 +3352,7 @@
         <v>8.4382920466334781</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
         <v>143</v>
       </c>
@@ -3308,7 +3388,7 @@
         <v>10.056321472806609</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
         <v>145</v>
       </c>
@@ -3344,7 +3424,7 @@
         <v>7.0944721064673191</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
         <v>147</v>
       </c>
@@ -3380,7 +3460,7 @@
         <v>11.875928768082959</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="7" t="s">
         <v>149</v>
       </c>
@@ -3416,7 +3496,7 @@
         <v>11.045466496268482</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="7" t="s">
         <v>159</v>
       </c>
@@ -3452,7 +3532,7 @@
         <v>11.300843457495381</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="7" t="s">
         <v>161</v>
       </c>
@@ -3488,7 +3568,7 @@
         <v>10.746826967601001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="7" t="s">
         <v>163</v>
       </c>
@@ -3524,7 +3604,7 @@
         <v>9.2040885507135055</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>165</v>
       </c>
@@ -3562,7 +3642,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3574,16 +3660,16 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3603,7 +3689,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3622,7 +3708,7 @@
         <v>0.99117588294935399</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3648,7 +3734,7 @@
       </c>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +3759,7 @@
         <v>0.99954354741737861</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3695,7 +3781,7 @@
         <v>0.99908730318371741</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -3717,7 +3803,7 @@
         <v>0.99890476382046089</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3834,7 @@
         <v>1.1240254286509514E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15" thickBot="1">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -3779,7 +3865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3787,7 +3873,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15" thickBot="1">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3809,7 +3895,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3844,7 +3930,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3881,7 +3967,7 @@
         <v>8.5474546694179E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3914,7 +4000,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15" thickBot="1">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3943,7 +4029,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15" thickBot="1">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3960,7 +4046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4002,7 +4088,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>4</v>
       </c>
@@ -4046,7 +4132,7 @@
         <v>5.1146018161809699E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15" thickBot="1">
       <c r="A18">
         <v>5</v>
       </c>
@@ -4090,7 +4176,7 @@
         <v>3.6925234298389726E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>6</v>
       </c>
@@ -4107,7 +4193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>7</v>
       </c>
@@ -4127,7 +4213,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="15" thickBot="1">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4144,7 +4230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>9</v>
       </c>
@@ -4170,7 +4256,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>10</v>
       </c>
@@ -4196,7 +4282,7 @@
         <v>8.8241170506460076E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>11</v>
       </c>
@@ -4222,7 +4308,7 @@
         <v>-1.7995892942624936E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>12</v>
       </c>
@@ -4248,7 +4334,7 @@
         <v>8.8221449222146142E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>13</v>
       </c>
@@ -4274,7 +4360,7 @@
         <v>-7.6612912826921342E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>14</v>
       </c>
@@ -4300,7 +4386,7 @@
         <v>1.1494102009396989E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>15</v>
       </c>
@@ -4326,7 +4412,7 @@
         <v>9.2879069896516717E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="15" thickBot="1">
       <c r="A29">
         <v>16</v>
       </c>
@@ -4352,7 +4438,7 @@
         <v>-2.4263949381349015E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>17</v>
       </c>
@@ -4369,7 +4455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>18</v>
       </c>
@@ -4386,7 +4472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>19</v>
       </c>
@@ -4406,7 +4492,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="15" thickBot="1">
       <c r="A33">
         <v>20</v>
       </c>
@@ -4423,7 +4509,7 @@
         <v>67081</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>21</v>
       </c>
@@ -4444,7 +4530,7 @@
       </c>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>22</v>
       </c>
@@ -4467,7 +4553,7 @@
         <v>0.99991958682692095</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>23</v>
       </c>
@@ -4490,7 +4576,7 @@
         <v>0.99983918012012041</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>24</v>
       </c>
@@ -4513,7 +4599,7 @@
         <v>0.99975877018018067</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>25</v>
       </c>
@@ -4536,7 +4622,7 @@
         <v>3.3905911875026097E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="15" thickBot="1">
       <c r="A39">
         <v>26</v>
       </c>
@@ -4559,7 +4645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>27</v>
       </c>
@@ -4576,7 +4662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="15" thickBot="1">
       <c r="A41">
         <v>28</v>
       </c>
@@ -4596,7 +4682,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>29</v>
       </c>
@@ -4629,7 +4715,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>30</v>
       </c>
@@ -4664,7 +4750,7 @@
         <v>8.0413173079016835E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>31</v>
       </c>
@@ -4695,7 +4781,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
     </row>
-    <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="15" thickBot="1">
       <c r="A45">
         <v>32</v>
       </c>
@@ -4724,7 +4810,7 @@
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
     </row>
-    <row r="46" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="15" thickBot="1">
       <c r="A46">
         <v>33</v>
       </c>
@@ -4741,7 +4827,7 @@
         <v>7439</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24">
       <c r="A47">
         <v>34</v>
       </c>
@@ -4783,7 +4869,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>35</v>
       </c>
@@ -4827,7 +4913,7 @@
         <v>0.10495673267347101</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" ht="15" thickBot="1">
       <c r="A49">
         <v>36</v>
       </c>
@@ -4871,7 +4957,7 @@
         <v>3.6808934043644778E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>37</v>
       </c>
@@ -4888,7 +4974,7 @@
         <v>11359</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>38</v>
       </c>
@@ -4908,7 +4994,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" ht="15" thickBot="1">
       <c r="A52">
         <v>39</v>
       </c>
@@ -4925,7 +5011,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>40</v>
       </c>
@@ -4951,7 +5037,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>41</v>
       </c>
@@ -4977,7 +5063,7 @@
         <v>-1.1158053812052815E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>42</v>
       </c>
@@ -5003,7 +5089,7 @@
         <v>4.1415022960303638E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>43</v>
       </c>
@@ -5029,7 +5115,7 @@
         <v>-1.4186853685759893E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" ht="15" thickBot="1">
       <c r="A57">
         <v>44</v>
       </c>
@@ -5055,7 +5141,7 @@
         <v>-1.6070115462490486E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>45</v>
       </c>
@@ -5072,7 +5158,7 @@
         <v>15925</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>46</v>
       </c>
@@ -5089,7 +5175,7 @@
         <v>166111</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>47</v>
       </c>
@@ -5106,7 +5192,7 @@
         <v>49233</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>48</v>
       </c>
@@ -5123,7 +5209,7 @@
         <v>12088</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>49</v>
       </c>
@@ -5140,7 +5226,7 @@
         <v>15043</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>50</v>
       </c>
@@ -5157,7 +5243,7 @@
         <v>6306</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>51</v>
       </c>
@@ -5174,7 +5260,7 @@
         <v>12753</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>52</v>
       </c>
@@ -5191,7 +5277,7 @@
         <v>35366</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>53</v>
       </c>
@@ -5208,7 +5294,7 @@
         <v>29588</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>54</v>
       </c>
@@ -5225,7 +5311,7 @@
         <v>144079</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>55</v>
       </c>
@@ -5242,7 +5328,7 @@
         <v>413882</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>56</v>
       </c>
@@ -5259,7 +5345,7 @@
         <v>283767</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>57</v>
       </c>
@@ -5276,7 +5362,7 @@
         <v>311825</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>58</v>
       </c>
@@ -5293,7 +5379,7 @@
         <v>133035</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>59</v>
       </c>
@@ -5310,7 +5396,7 @@
         <v>203631</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>60</v>
       </c>
@@ -5327,7 +5413,7 @@
         <v>184768</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>61</v>
       </c>
@@ -5344,7 +5430,7 @@
         <v>180805</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>62</v>
       </c>
@@ -5361,7 +5447,7 @@
         <v>358509</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>63</v>
       </c>
@@ -5378,7 +5464,7 @@
         <v>353370</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>64</v>
       </c>
@@ -5395,7 +5481,7 @@
         <v>391878</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>65</v>
       </c>
@@ -5412,7 +5498,7 @@
         <v>428377</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>66</v>
       </c>
@@ -5429,7 +5515,7 @@
         <v>376350</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>67</v>
       </c>
@@ -5446,7 +5532,7 @@
         <v>552479</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>68</v>
       </c>
@@ -5463,7 +5549,7 @@
         <v>293604</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>69</v>
       </c>
@@ -5480,7 +5566,7 @@
         <v>17378</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>70</v>
       </c>
@@ -5497,7 +5583,7 @@
         <v>167466</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>71</v>
       </c>
@@ -5514,7 +5600,7 @@
         <v>423519</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>72</v>
       </c>
@@ -5531,7 +5617,7 @@
         <v>345889</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>73</v>
       </c>
@@ -5548,7 +5634,7 @@
         <v>376092</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>74</v>
       </c>
@@ -5565,7 +5651,7 @@
         <v>391394</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>75</v>
       </c>
@@ -5582,7 +5668,7 @@
         <v>355669</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>76</v>
       </c>
@@ -5599,7 +5685,7 @@
         <v>357087</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>77</v>
       </c>
@@ -5616,7 +5702,7 @@
         <v>418208</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>78</v>
       </c>
@@ -5633,7 +5719,7 @@
         <v>60639</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>79</v>
       </c>
@@ -5650,7 +5736,7 @@
         <v>351243</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>80</v>
       </c>
@@ -5667,7 +5753,7 @@
         <v>1414635</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>81</v>
       </c>
@@ -5684,7 +5770,7 @@
         <v>387427</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>82</v>
       </c>
@@ -5701,7 +5787,7 @@
         <v>398446</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>83</v>
       </c>
@@ -5718,7 +5804,7 @@
         <v>325515</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>84</v>
       </c>
@@ -5735,7 +5821,7 @@
         <v>402976</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>85</v>
       </c>
@@ -5752,7 +5838,7 @@
         <v>47044</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>86</v>
       </c>
@@ -5769,7 +5855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>87</v>
       </c>
@@ -5786,7 +5872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>88</v>
       </c>
@@ -5803,7 +5889,7 @@
         <v>11296</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>89</v>
       </c>
@@ -5820,7 +5906,7 @@
         <v>29094</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>90</v>
       </c>
@@ -5837,7 +5923,7 @@
         <v>93588</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>91</v>
       </c>
@@ -5854,7 +5940,7 @@
         <v>10130</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>92</v>
       </c>
@@ -5873,8 +5959,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5886,12 +5977,15 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="12.44140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="23" customWidth="1"/>
+    <col min="2" max="7" width="12.5" style="23"/>
+    <col min="8" max="8" width="15.5" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="12.5" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
         <v>243</v>
       </c>
@@ -5908,7 +6002,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -5933,7 +6027,7 @@
         <v>0.56842105263157894</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -5958,7 +6052,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -5983,7 +6077,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -6008,7 +6102,7 @@
         <v>0.71351351351351355</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -6033,7 +6127,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -6058,7 +6152,7 @@
         <v>0.65806451612903227</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -6083,7 +6177,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="23">
         <v>8</v>
       </c>
@@ -6108,7 +6202,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -6133,7 +6227,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -6158,7 +6252,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -6183,7 +6277,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -6208,7 +6302,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -6233,7 +6327,7 @@
         <v>0.69473684210526321</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -6258,7 +6352,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -6283,7 +6377,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -6313,5 +6407,1388 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>413882</v>
+      </c>
+      <c r="I2">
+        <v>1.4673777554956668</v>
+      </c>
+      <c r="J2">
+        <v>1.4673777554956668</v>
+      </c>
+      <c r="K2">
+        <v>0.26679595554466667</v>
+      </c>
+      <c r="L2">
+        <v>203.80246604106483</v>
+      </c>
+      <c r="M2">
+        <v>37.054993825648154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>283767</v>
+      </c>
+      <c r="I5">
+        <v>1.0062319324893865</v>
+      </c>
+      <c r="J5">
+        <v>1.0062319324893865</v>
+      </c>
+      <c r="K5">
+        <v>0.18295126045261573</v>
+      </c>
+      <c r="L5">
+        <v>114.34453778288481</v>
+      </c>
+      <c r="M5">
+        <v>20.78991596052451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L6" t="s">
+        <v>248</v>
+      </c>
+      <c r="M6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>311825</v>
+      </c>
+      <c r="I7">
+        <v>1.1056734227242573</v>
+      </c>
+      <c r="J7">
+        <v>1.1056734227242573</v>
+      </c>
+      <c r="K7">
+        <v>0.20103153140441041</v>
+      </c>
+      <c r="L7">
+        <v>162.59903275356726</v>
+      </c>
+      <c r="M7">
+        <v>29.563460500648592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" t="s">
+        <v>248</v>
+      </c>
+      <c r="L8" t="s">
+        <v>248</v>
+      </c>
+      <c r="M8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L9" t="s">
+        <v>248</v>
+      </c>
+      <c r="M9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>133035</v>
+      </c>
+      <c r="I11">
+        <v>0.47201656767070582</v>
+      </c>
+      <c r="J11">
+        <v>0.47201656767070582</v>
+      </c>
+      <c r="K11">
+        <v>8.5821194121946512E-2</v>
+      </c>
+      <c r="L11">
+        <v>118.00414191767645</v>
+      </c>
+      <c r="M11">
+        <v>21.455298530486626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>203631</v>
+      </c>
+      <c r="I12">
+        <v>0.72221870056046766</v>
+      </c>
+      <c r="J12">
+        <v>0.72221870056046766</v>
+      </c>
+      <c r="K12">
+        <v>0.13131249101099413</v>
+      </c>
+      <c r="L12">
+        <v>120.3697834267446</v>
+      </c>
+      <c r="M12">
+        <v>21.885415168499019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>184768</v>
+      </c>
+      <c r="I13">
+        <v>0.65536558094038189</v>
+      </c>
+      <c r="J13">
+        <v>0.65536558094038189</v>
+      </c>
+      <c r="K13">
+        <v>0.1191573783527967</v>
+      </c>
+      <c r="L13">
+        <v>78.019712016712134</v>
+      </c>
+      <c r="M13">
+        <v>14.185402184856752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>180805</v>
+      </c>
+      <c r="I14">
+        <v>0.64132015269172582</v>
+      </c>
+      <c r="J14">
+        <v>0.64132015269172582</v>
+      </c>
+      <c r="K14">
+        <v>0.11660366412576834</v>
+      </c>
+      <c r="L14">
+        <v>72.877290078605199</v>
+      </c>
+      <c r="M14">
+        <v>13.250416377928218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" t="s">
+        <v>248</v>
+      </c>
+      <c r="I15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" t="s">
+        <v>248</v>
+      </c>
+      <c r="K15" t="s">
+        <v>248</v>
+      </c>
+      <c r="L15" t="s">
+        <v>248</v>
+      </c>
+      <c r="M15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" t="s">
+        <v>248</v>
+      </c>
+      <c r="L16" t="s">
+        <v>248</v>
+      </c>
+      <c r="M16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>358509</v>
+      </c>
+      <c r="I17">
+        <v>1.2711280713137756</v>
+      </c>
+      <c r="J17">
+        <v>1.2711280713137756</v>
+      </c>
+      <c r="K17">
+        <v>0.23111419478432282</v>
+      </c>
+      <c r="L17">
+        <v>186.93059872261406</v>
+      </c>
+      <c r="M17">
+        <v>33.987381585929832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18">
+        <v>2.03999999999986E-2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>353370</v>
+      </c>
+      <c r="I18">
+        <v>1.2529147340011733</v>
+      </c>
+      <c r="J18">
+        <v>1.2529147340011733</v>
+      </c>
+      <c r="K18">
+        <v>0.22780267890930422</v>
+      </c>
+      <c r="L18">
+        <v>61.417388921630355</v>
+      </c>
+      <c r="M18">
+        <v>11.166797985750973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19">
+        <v>2.3699999999998101E-2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>391878</v>
+      </c>
+      <c r="I19">
+        <v>1.3893924910032547</v>
+      </c>
+      <c r="J19">
+        <v>1.3893924910032547</v>
+      </c>
+      <c r="K19">
+        <v>0.25261681654604629</v>
+      </c>
+      <c r="L19">
+        <v>58.624155738538647</v>
+      </c>
+      <c r="M19">
+        <v>10.658937407007027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20">
+        <v>2.63999999999989E-2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>428377</v>
+      </c>
+      <c r="I20">
+        <v>1.5187500700210945</v>
+      </c>
+      <c r="J20">
+        <v>1.5187500700210945</v>
+      </c>
+      <c r="K20">
+        <v>0.27613637636747174</v>
+      </c>
+      <c r="L20">
+        <v>57.528411743225675</v>
+      </c>
+      <c r="M20">
+        <v>10.459711226041032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21">
+        <v>3.2799999999998199E-2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>376350</v>
+      </c>
+      <c r="I21">
+        <v>1.3343590794854319</v>
+      </c>
+      <c r="J21">
+        <v>1.3343590794854319</v>
+      </c>
+      <c r="K21">
+        <v>0.24261074172462396</v>
+      </c>
+      <c r="L21">
+        <v>40.681679252606862</v>
+      </c>
+      <c r="M21">
+        <v>7.3966689550194298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22">
+        <v>2.1899999999998698E-2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>423519</v>
+      </c>
+      <c r="I22">
+        <v>1.501532636149792</v>
+      </c>
+      <c r="J22">
+        <v>1.501532636149792</v>
+      </c>
+      <c r="K22">
+        <v>0.27300593384541672</v>
+      </c>
+      <c r="L22">
+        <v>68.563134070770829</v>
+      </c>
+      <c r="M22">
+        <v>12.466024376503787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23">
+        <v>2.6099999999999599E-2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>345889</v>
+      </c>
+      <c r="I23">
+        <v>1.226401019964283</v>
+      </c>
+      <c r="J23">
+        <v>1.226401019964283</v>
+      </c>
+      <c r="K23">
+        <v>0.22298200362986964</v>
+      </c>
+      <c r="L23">
+        <v>46.988544826218458</v>
+      </c>
+      <c r="M23">
+        <v>8.5433717865851744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24">
+        <v>2.1000000000000799E-2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>376092</v>
+      </c>
+      <c r="I24">
+        <v>1.3334446912724232</v>
+      </c>
+      <c r="J24">
+        <v>1.3334446912724232</v>
+      </c>
+      <c r="K24">
+        <v>0.24244448932225876</v>
+      </c>
+      <c r="L24">
+        <v>63.497366251065351</v>
+      </c>
+      <c r="M24">
+        <v>11.544975682011883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25">
+        <v>2.98999999999978E-2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>391394</v>
+      </c>
+      <c r="I25">
+        <v>1.3876771270687733</v>
+      </c>
+      <c r="J25">
+        <v>1.3876771270687733</v>
+      </c>
+      <c r="K25">
+        <v>0.25230493219432243</v>
+      </c>
+      <c r="L25">
+        <v>46.41060625648413</v>
+      </c>
+      <c r="M25">
+        <v>8.4382920466334781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F26">
+        <v>2.2800000000000199E-2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>355669</v>
+      </c>
+      <c r="I26">
+        <v>1.2610627126899596</v>
+      </c>
+      <c r="J26">
+        <v>1.2610627126899596</v>
+      </c>
+      <c r="K26">
+        <v>0.22928412957999267</v>
+      </c>
+      <c r="L26">
+        <v>55.309768100436344</v>
+      </c>
+      <c r="M26">
+        <v>10.056321472806609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27">
+        <v>3.0000000000001099E-2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>330141</v>
+      </c>
+      <c r="I27">
+        <v>1.1705878975671504</v>
+      </c>
+      <c r="J27">
+        <v>1.1705878975671504</v>
+      </c>
+      <c r="K27">
+        <v>0.21283416319402734</v>
+      </c>
+      <c r="L27">
+        <v>39.019596585570255</v>
+      </c>
+      <c r="M27">
+        <v>7.0944721064673191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28">
+        <v>2.27000000000004E-2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>418208</v>
+      </c>
+      <c r="I28">
+        <v>1.4827097066951838</v>
+      </c>
+      <c r="J28">
+        <v>1.4827097066951838</v>
+      </c>
+      <c r="K28">
+        <v>0.26958358303548796</v>
+      </c>
+      <c r="L28">
+        <v>65.317608224456279</v>
+      </c>
+      <c r="M28">
+        <v>11.875928768082959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F29">
+        <v>2.0500000000001999E-2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>351243</v>
+      </c>
+      <c r="I29">
+        <v>1.2453763474543926</v>
+      </c>
+      <c r="J29">
+        <v>1.2453763474543926</v>
+      </c>
+      <c r="K29">
+        <v>0.22643206317352593</v>
+      </c>
+      <c r="L29">
+        <v>60.750065729476646</v>
+      </c>
+      <c r="M29">
+        <v>11.045466496268482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F30">
+        <v>2.2100000000001799E-2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>387427</v>
+      </c>
+      <c r="I30">
+        <v>1.3736175222586753</v>
+      </c>
+      <c r="J30">
+        <v>1.3736175222586753</v>
+      </c>
+      <c r="K30">
+        <v>0.24974864041066824</v>
+      </c>
+      <c r="L30">
+        <v>62.154639016224593</v>
+      </c>
+      <c r="M30">
+        <v>11.300843457495381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31">
+        <v>2.38999999999976E-2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>398446</v>
+      </c>
+      <c r="I31">
+        <v>1.4126704048910097</v>
+      </c>
+      <c r="J31">
+        <v>1.4126704048910097</v>
+      </c>
+      <c r="K31">
+        <v>0.25684916452563811</v>
+      </c>
+      <c r="L31">
+        <v>59.107548321805503</v>
+      </c>
+      <c r="M31">
+        <v>10.746826967601001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32">
+        <v>2.2800000000000199E-2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>325515</v>
+      </c>
+      <c r="I32">
+        <v>1.1541927042594837</v>
+      </c>
+      <c r="J32">
+        <v>1.1541927042594837</v>
+      </c>
+      <c r="K32">
+        <v>0.20985321895626977</v>
+      </c>
+      <c r="L32">
+        <v>50.622487028924283</v>
+      </c>
+      <c r="M32">
+        <v>9.2040885507135055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33">
+        <v>2.4000000000000899E-2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>402976</v>
+      </c>
+      <c r="I33">
+        <v>1.4287253607240686</v>
+      </c>
+      <c r="J33">
+        <v>1.4287253607240686</v>
+      </c>
+      <c r="K33">
+        <v>0.2597682474043761</v>
+      </c>
+      <c r="L33">
+        <v>59.530223363500632</v>
+      </c>
+      <c r="M33">
+        <v>10.823676975181932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>